--- a/uji kruskal w.xlsx
+++ b/uji kruskal w.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Drive\deden-RMarkdown &amp; Github\PDP-SoVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5100D9DF-DE78-439E-BD6C-C5FAF125B91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2941B28A-5B5A-4CDD-A6D6-9040B0D8BDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4BE3D4AA-85D9-41AA-9836-D8544F240992}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{4BE3D4AA-85D9-41AA-9836-D8544F240992}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t/>
   </si>
@@ -397,71 +398,128 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{9050BB07-0C3E-4554-8068-A82AEFC19CF9}"/>
+    <cellStyle name="Normal_Sheet2" xfId="2" xr:uid="{EF3ECBE5-6ECA-45E2-AB27-651C87D163AA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -775,288 +833,288 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B7DE11-A85D-477B-8784-167CA0F991E0}">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="2"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="2"/>
+      <c r="U2" s="1"/>
     </row>
     <row r="3" spans="1:21" ht="23" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>35.053978329565183</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>5.5745688269873872</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>70.122365975124978</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>16.616022998493069</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>51.388572831561881</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>199.50004687022107</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <v>171.90743667738215</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <v>27.751327865173799</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="7">
         <v>195.41330965675016</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="7">
         <v>148.85759298911236</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="7">
         <v>56.825019469118864</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="7">
         <v>20.584723079718575</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="7">
         <v>218.88980290151906</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="7">
         <v>352.06737175612636</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="7">
         <v>201.49790615199751</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="7">
         <v>7.5378330308566133</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="7">
         <v>7.6339432675340291</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="7">
         <v>8.3102751883785668</v>
       </c>
-      <c r="T3" s="10">
+      <c r="T3" s="8">
         <v>290.33412942528929</v>
       </c>
-      <c r="U3" s="2"/>
+      <c r="U3" s="1"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="12">
-        <v>3</v>
-      </c>
-      <c r="C4" s="13">
-        <v>3</v>
-      </c>
-      <c r="D4" s="13">
-        <v>3</v>
-      </c>
-      <c r="E4" s="13">
-        <v>3</v>
-      </c>
-      <c r="F4" s="13">
-        <v>3</v>
-      </c>
-      <c r="G4" s="13">
-        <v>3</v>
-      </c>
-      <c r="H4" s="13">
-        <v>3</v>
-      </c>
-      <c r="I4" s="13">
-        <v>3</v>
-      </c>
-      <c r="J4" s="13">
-        <v>3</v>
-      </c>
-      <c r="K4" s="13">
-        <v>3</v>
-      </c>
-      <c r="L4" s="13">
-        <v>3</v>
-      </c>
-      <c r="M4" s="13">
-        <v>3</v>
-      </c>
-      <c r="N4" s="13">
-        <v>3</v>
-      </c>
-      <c r="O4" s="13">
-        <v>3</v>
-      </c>
-      <c r="P4" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>3</v>
-      </c>
-      <c r="R4" s="13">
-        <v>3</v>
-      </c>
-      <c r="S4" s="13">
-        <v>3</v>
-      </c>
-      <c r="T4" s="14">
-        <v>3</v>
-      </c>
-      <c r="U4" s="2"/>
+      <c r="B4" s="10">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11">
+        <v>3</v>
+      </c>
+      <c r="E4" s="11">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>3</v>
+      </c>
+      <c r="G4" s="11">
+        <v>3</v>
+      </c>
+      <c r="H4" s="11">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11">
+        <v>3</v>
+      </c>
+      <c r="J4" s="11">
+        <v>3</v>
+      </c>
+      <c r="K4" s="11">
+        <v>3</v>
+      </c>
+      <c r="L4" s="11">
+        <v>3</v>
+      </c>
+      <c r="M4" s="11">
+        <v>3</v>
+      </c>
+      <c r="N4" s="11">
+        <v>3</v>
+      </c>
+      <c r="O4" s="11">
+        <v>3</v>
+      </c>
+      <c r="P4" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>3</v>
+      </c>
+      <c r="R4" s="11">
+        <v>3</v>
+      </c>
+      <c r="S4" s="11">
+        <v>3</v>
+      </c>
+      <c r="T4" s="12">
+        <v>3</v>
+      </c>
+      <c r="U4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="23" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>1.1866757217917822E-7</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="15">
         <v>0.13424598348438285</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="15">
         <v>4.0184268849988757E-15</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <v>8.4758862191266484E-4</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="15">
         <v>4.0430006170431563E-11</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="15">
         <v>5.4098795173835921E-43</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="15">
         <v>4.9302218817237219E-37</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="15">
         <v>4.0957883200312079E-6</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="15">
         <v>4.132013407687845E-42</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="15">
         <v>4.6472776125511812E-32</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="15">
         <v>2.8006839338877451E-12</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="15">
         <v>1.2839144871002657E-4</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="15">
         <v>3.4890461315548163E-47</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="15">
         <v>5.3213630129217907E-76</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="15">
         <v>2.0021677515655579E-43</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="15">
         <v>5.6594286680320918E-2</v>
       </c>
-      <c r="R5" s="17">
+      <c r="R5" s="15">
         <v>5.4214936893020073E-2</v>
       </c>
-      <c r="S5" s="17">
+      <c r="S5" s="15">
         <v>4.0016152968686457E-2</v>
       </c>
-      <c r="T5" s="18">
+      <c r="T5" s="16">
         <v>1.2291988335515202E-62</v>
       </c>
-      <c r="U5" s="2"/>
+      <c r="U5" s="1"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
@@ -1081,7 +1139,7 @@
       <c r="R6" s="19"/>
       <c r="S6" s="19"/>
       <c r="T6" s="19"/>
-      <c r="U6" s="2"/>
+      <c r="U6" s="1"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
@@ -1106,7 +1164,355 @@
       <c r="R7" s="19"/>
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
-      <c r="U7" s="2"/>
+      <c r="U7" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2"/>
+    <mergeCell ref="A6:T6"/>
+    <mergeCell ref="A7:T7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539688D3-97EB-42AC-BFCB-6A8725A1FDA1}">
+  <dimension ref="A1:U7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="21"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="21"/>
+    </row>
+    <row r="3" spans="1:21" ht="23" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="27">
+        <v>32.833092659930372</v>
+      </c>
+      <c r="C3" s="28">
+        <v>6.9359127950339294</v>
+      </c>
+      <c r="D3" s="28">
+        <v>60.24640952987469</v>
+      </c>
+      <c r="E3" s="28">
+        <v>7.1893821400126861</v>
+      </c>
+      <c r="F3" s="28">
+        <v>51.592014607600511</v>
+      </c>
+      <c r="G3" s="28">
+        <v>142.19685342631976</v>
+      </c>
+      <c r="H3" s="28">
+        <v>142.42344582804753</v>
+      </c>
+      <c r="I3" s="28">
+        <v>24.600179122914671</v>
+      </c>
+      <c r="J3" s="28">
+        <v>159.07173614059349</v>
+      </c>
+      <c r="K3" s="28">
+        <v>111.87130690524181</v>
+      </c>
+      <c r="L3" s="28">
+        <v>44.179200067535959</v>
+      </c>
+      <c r="M3" s="28">
+        <v>25.949529657929105</v>
+      </c>
+      <c r="N3" s="28">
+        <v>176.06067002667598</v>
+      </c>
+      <c r="O3" s="28">
+        <v>267.13618210094342</v>
+      </c>
+      <c r="P3" s="28">
+        <v>171.46862192795234</v>
+      </c>
+      <c r="Q3" s="28">
+        <v>1.6740334595404471</v>
+      </c>
+      <c r="R3" s="28">
+        <v>2.1512362206734048</v>
+      </c>
+      <c r="S3" s="28">
+        <v>2.814849786738931</v>
+      </c>
+      <c r="T3" s="29">
+        <v>240.76720462950081</v>
+      </c>
+      <c r="U3" s="21"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="31">
+        <v>3</v>
+      </c>
+      <c r="C4" s="32">
+        <v>3</v>
+      </c>
+      <c r="D4" s="32">
+        <v>3</v>
+      </c>
+      <c r="E4" s="32">
+        <v>3</v>
+      </c>
+      <c r="F4" s="32">
+        <v>3</v>
+      </c>
+      <c r="G4" s="32">
+        <v>3</v>
+      </c>
+      <c r="H4" s="32">
+        <v>3</v>
+      </c>
+      <c r="I4" s="32">
+        <v>3</v>
+      </c>
+      <c r="J4" s="32">
+        <v>3</v>
+      </c>
+      <c r="K4" s="32">
+        <v>3</v>
+      </c>
+      <c r="L4" s="32">
+        <v>3</v>
+      </c>
+      <c r="M4" s="32">
+        <v>3</v>
+      </c>
+      <c r="N4" s="32">
+        <v>3</v>
+      </c>
+      <c r="O4" s="32">
+        <v>3</v>
+      </c>
+      <c r="P4" s="32">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="32">
+        <v>3</v>
+      </c>
+      <c r="R4" s="32">
+        <v>3</v>
+      </c>
+      <c r="S4" s="32">
+        <v>3</v>
+      </c>
+      <c r="T4" s="33">
+        <v>3</v>
+      </c>
+      <c r="U4" s="21"/>
+    </row>
+    <row r="5" spans="1:21" ht="23" x14ac:dyDescent="0.35">
+      <c r="A5" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="35">
+        <v>3.4926130645699224E-7</v>
+      </c>
+      <c r="C5" s="36">
+        <v>7.3968745639349964E-2</v>
+      </c>
+      <c r="D5" s="36">
+        <v>5.2071635005749596E-13</v>
+      </c>
+      <c r="E5" s="36">
+        <v>6.6100329073113834E-2</v>
+      </c>
+      <c r="F5" s="36">
+        <v>3.6589242797489677E-11</v>
+      </c>
+      <c r="G5" s="36">
+        <v>1.2698524337575437E-30</v>
+      </c>
+      <c r="H5" s="36">
+        <v>1.134724240236918E-30</v>
+      </c>
+      <c r="I5" s="36">
+        <v>1.8716880856761885E-5</v>
+      </c>
+      <c r="J5" s="36">
+        <v>2.9070523034932113E-34</v>
+      </c>
+      <c r="K5" s="36">
+        <v>4.3409532772116875E-24</v>
+      </c>
+      <c r="L5" s="36">
+        <v>1.3825280910848833E-9</v>
+      </c>
+      <c r="M5" s="36">
+        <v>9.7723075979071527E-6</v>
+      </c>
+      <c r="N5" s="36">
+        <v>6.2535777305627619E-38</v>
+      </c>
+      <c r="O5" s="36">
+        <v>1.2853997986273717E-57</v>
+      </c>
+      <c r="P5" s="36">
+        <v>6.1320435210478037E-37</v>
+      </c>
+      <c r="Q5" s="36">
+        <v>0.64272209771417155</v>
+      </c>
+      <c r="R5" s="36">
+        <v>0.54161706666620368</v>
+      </c>
+      <c r="S5" s="36">
+        <v>0.42106120825036741</v>
+      </c>
+      <c r="T5" s="37">
+        <v>6.4952701451582517E-52</v>
+      </c>
+      <c r="U5" s="21"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="21"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
